--- a/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq/AVERAGE_1_9_qoq_errors_latest_eval_ifoCASTset_naive_qoq.xlsx
+++ b/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq/AVERAGE_1_9_qoq_errors_latest_eval_ifoCASTset_naive_qoq.xlsx
@@ -513,34 +513,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.04231489763667018</v>
+        <v>-1.112737948256028</v>
       </c>
       <c r="C2">
-        <v>-1.112737948256028</v>
+        <v>0.426895895633562</v>
       </c>
       <c r="D2">
-        <v>0.426895895633562</v>
+        <v>0.1572417756599283</v>
       </c>
       <c r="E2">
-        <v>0.1572417756599283</v>
+        <v>0.7087734795590415</v>
       </c>
       <c r="F2">
-        <v>0.7087734795590415</v>
+        <v>0.482846718646189</v>
       </c>
       <c r="G2">
-        <v>0.482846718646189</v>
+        <v>0.5906624340427387</v>
       </c>
       <c r="H2">
-        <v>0.5906624340427387</v>
+        <v>0.4942628133784369</v>
       </c>
       <c r="I2">
-        <v>0.4942628133784369</v>
+        <v>0.9976736988314454</v>
       </c>
       <c r="J2">
-        <v>0.9976736988314454</v>
+        <v>1.256195640754894</v>
       </c>
       <c r="K2">
-        <v>1.256195640754894</v>
+        <v>-0.4677869442234193</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -548,34 +548,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1.228061995268202</v>
+        <v>0.9584078752945684</v>
       </c>
       <c r="C3">
-        <v>0.9584078752945684</v>
+        <v>1.509939579193682</v>
       </c>
       <c r="D3">
-        <v>1.509939579193682</v>
+        <v>1.284012818280829</v>
       </c>
       <c r="E3">
-        <v>1.284012818280829</v>
+        <v>1.391828533677379</v>
       </c>
       <c r="F3">
-        <v>1.391828533677379</v>
+        <v>1.295428913013077</v>
       </c>
       <c r="G3">
-        <v>1.295428913013077</v>
+        <v>1.798839798466086</v>
       </c>
       <c r="H3">
-        <v>1.798839798466086</v>
+        <v>2.057361740389535</v>
       </c>
       <c r="I3">
-        <v>2.057361740389535</v>
+        <v>0.3333791554112209</v>
       </c>
       <c r="J3">
-        <v>0.3333791554112209</v>
+        <v>0.9870183717739222</v>
       </c>
       <c r="K3">
-        <v>0.9870183717739222</v>
+        <v>1.350562306682353</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,34 +583,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.5137754236260815</v>
+        <v>0.2878486627132291</v>
       </c>
       <c r="C4">
-        <v>0.2878486627132291</v>
+        <v>0.3956643781097787</v>
       </c>
       <c r="D4">
-        <v>0.3956643781097787</v>
+        <v>0.299264757445477</v>
       </c>
       <c r="E4">
-        <v>0.299264757445477</v>
+        <v>0.8026756428984855</v>
       </c>
       <c r="F4">
-        <v>0.8026756428984855</v>
+        <v>1.061197584821935</v>
       </c>
       <c r="G4">
-        <v>1.061197584821935</v>
+        <v>-0.6627850001563792</v>
       </c>
       <c r="H4">
-        <v>-0.6627850001563792</v>
+        <v>-0.00914578379367792</v>
       </c>
       <c r="I4">
-        <v>-0.00914578379367792</v>
+        <v>0.3543981511147533</v>
       </c>
       <c r="J4">
-        <v>0.3543981511147533</v>
+        <v>-0.5463776937648762</v>
       </c>
       <c r="K4">
-        <v>-0.5463776937648762</v>
+        <v>0.5239978631887766</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,34 +618,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.4028038717171413</v>
+        <v>0.3064042510528396</v>
       </c>
       <c r="C5">
-        <v>0.3064042510528396</v>
+        <v>0.8098151365058481</v>
       </c>
       <c r="D5">
-        <v>0.8098151365058481</v>
+        <v>1.068337078429297</v>
       </c>
       <c r="E5">
-        <v>1.068337078429297</v>
+        <v>-0.6556455065490165</v>
       </c>
       <c r="F5">
-        <v>-0.6556455065490165</v>
+        <v>-0.002006290186315263</v>
       </c>
       <c r="G5">
-        <v>-0.002006290186315263</v>
+        <v>0.3615376447221159</v>
       </c>
       <c r="H5">
-        <v>0.3615376447221159</v>
+        <v>-0.5392382001575136</v>
       </c>
       <c r="I5">
-        <v>-0.5392382001575136</v>
+        <v>0.5311373567961393</v>
       </c>
       <c r="J5">
-        <v>0.5311373567961393</v>
+        <v>-0.04592255722032257</v>
       </c>
       <c r="K5">
-        <v>-0.04592255722032257</v>
+        <v>-0.2515285413133388</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -653,34 +653,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.5336388157440486</v>
+        <v>0.7921607576674977</v>
       </c>
       <c r="C6">
-        <v>0.7921607576674977</v>
+        <v>-0.9318218273108161</v>
       </c>
       <c r="D6">
-        <v>-0.9318218273108161</v>
+        <v>-0.2781826109481148</v>
       </c>
       <c r="E6">
-        <v>-0.2781826109481148</v>
+        <v>0.0853613239603164</v>
       </c>
       <c r="F6">
-        <v>0.0853613239603164</v>
+        <v>-0.8154145209193131</v>
       </c>
       <c r="G6">
-        <v>-0.8154145209193131</v>
+        <v>0.2549610360343397</v>
       </c>
       <c r="H6">
-        <v>0.2549610360343397</v>
+        <v>-0.3220988779821221</v>
       </c>
       <c r="I6">
-        <v>-0.3220988779821221</v>
+        <v>-0.5277048620751383</v>
       </c>
       <c r="J6">
-        <v>-0.5277048620751383</v>
+        <v>0.4514401196459589</v>
       </c>
       <c r="K6">
-        <v>0.4514401196459589</v>
+        <v>-0.2849062236914031</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,34 +688,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1.102517691576566</v>
+        <v>-0.4488784752138651</v>
       </c>
       <c r="C7">
-        <v>-0.4488784752138651</v>
+        <v>-0.08533454030543387</v>
       </c>
       <c r="D7">
-        <v>-0.08533454030543387</v>
+        <v>-0.9861103851850633</v>
       </c>
       <c r="E7">
-        <v>-0.9861103851850633</v>
+        <v>0.08426517176858947</v>
       </c>
       <c r="F7">
-        <v>0.08426517176858947</v>
+        <v>-0.4927947422478724</v>
       </c>
       <c r="G7">
-        <v>-0.4927947422478724</v>
+        <v>-0.6984007263408886</v>
       </c>
       <c r="H7">
-        <v>-0.6984007263408886</v>
+        <v>0.2807442553802086</v>
       </c>
       <c r="I7">
-        <v>0.2807442553802086</v>
+        <v>-0.4556020879571533</v>
       </c>
       <c r="J7">
-        <v>-0.4556020879571533</v>
+        <v>-0.4735719026113467</v>
       </c>
       <c r="K7">
-        <v>-0.4735719026113467</v>
+        <v>-0.4501670370710099</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,34 +723,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.1737007515684039</v>
+        <v>-0.7270750933112256</v>
       </c>
       <c r="C8">
-        <v>-0.7270750933112256</v>
+        <v>0.3433004636424272</v>
       </c>
       <c r="D8">
-        <v>0.3433004636424272</v>
+        <v>-0.2337594503740346</v>
       </c>
       <c r="E8">
-        <v>-0.2337594503740346</v>
+        <v>-0.4393654344670508</v>
       </c>
       <c r="F8">
-        <v>-0.4393654344670508</v>
+        <v>0.5397795472540464</v>
       </c>
       <c r="G8">
-        <v>0.5397795472540464</v>
+        <v>-0.1965667960833156</v>
       </c>
       <c r="H8">
-        <v>-0.1965667960833156</v>
+        <v>-0.2145366107375089</v>
       </c>
       <c r="I8">
-        <v>-0.2145366107375089</v>
+        <v>-0.1911317451971721</v>
       </c>
       <c r="J8">
-        <v>-0.1911317451971721</v>
+        <v>-0.5563061809639129</v>
       </c>
       <c r="K8">
-        <v>-0.5563061809639129</v>
+        <v>0.09951333620703928</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,34 +758,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.8389029408811082</v>
+        <v>0.2618430268646463</v>
       </c>
       <c r="C9">
-        <v>0.2618430268646463</v>
+        <v>0.05623704277163011</v>
       </c>
       <c r="D9">
-        <v>0.05623704277163011</v>
+        <v>1.035382024492727</v>
       </c>
       <c r="E9">
-        <v>1.035382024492727</v>
+        <v>0.2990356811553654</v>
       </c>
       <c r="F9">
-        <v>0.2990356811553654</v>
+        <v>0.281065866501172</v>
       </c>
       <c r="G9">
-        <v>0.281065866501172</v>
+        <v>0.3044707320415089</v>
       </c>
       <c r="H9">
-        <v>0.3044707320415089</v>
+        <v>-0.06070370372523193</v>
       </c>
       <c r="I9">
-        <v>-0.06070370372523193</v>
+        <v>0.5951158134457202</v>
       </c>
       <c r="J9">
-        <v>0.5951158134457202</v>
+        <v>0.4642449325042965</v>
       </c>
       <c r="K9">
-        <v>0.4642449325042965</v>
+        <v>0.3547271335801747</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,34 +793,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.6954484448595206</v>
+        <v>0.2836965368615766</v>
       </c>
       <c r="C10">
-        <v>0.2836965368615766</v>
+        <v>-0.4526498064757853</v>
       </c>
       <c r="D10">
-        <v>-0.4526498064757853</v>
+        <v>-0.4706196211299787</v>
       </c>
       <c r="E10">
-        <v>-0.4706196211299787</v>
+        <v>-0.4472147555896419</v>
       </c>
       <c r="F10">
-        <v>-0.4472147555896419</v>
+        <v>-0.8123891913563827</v>
       </c>
       <c r="G10">
-        <v>-0.8123891913563827</v>
+        <v>-0.1565696741854305</v>
       </c>
       <c r="H10">
-        <v>-0.1565696741854305</v>
+        <v>-0.2874405551268542</v>
       </c>
       <c r="I10">
-        <v>-0.2874405551268542</v>
+        <v>-0.3969583540509761</v>
       </c>
       <c r="J10">
-        <v>-0.3969583540509761</v>
+        <v>-1.226736141118529</v>
       </c>
       <c r="K10">
-        <v>-1.226736141118529</v>
+        <v>-0.6462103519498816</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,34 +828,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.2465870357053012</v>
+        <v>-0.2645568503594945</v>
       </c>
       <c r="C11">
-        <v>-0.2645568503594945</v>
+        <v>-0.2411519848191577</v>
       </c>
       <c r="D11">
-        <v>-0.2411519848191577</v>
+        <v>-0.6063264205858985</v>
       </c>
       <c r="E11">
-        <v>-0.6063264205858985</v>
+        <v>0.04949309658505369</v>
       </c>
       <c r="F11">
-        <v>0.04949309658505369</v>
+        <v>-0.08137778435637</v>
       </c>
       <c r="G11">
-        <v>-0.08137778435637</v>
+        <v>-0.1908955832804919</v>
       </c>
       <c r="H11">
-        <v>-0.1908955832804919</v>
+        <v>-1.020673370348045</v>
       </c>
       <c r="I11">
-        <v>-1.020673370348045</v>
+        <v>-0.4401475811793975</v>
       </c>
       <c r="J11">
-        <v>-0.4401475811793975</v>
+        <v>-0.5235336826091774</v>
       </c>
       <c r="K11">
-        <v>-0.5235336826091774</v>
+        <v>-0.7414435601489361</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -863,34 +863,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.1975260465718366</v>
+        <v>-0.5627004823385774</v>
       </c>
       <c r="C12">
-        <v>-0.5627004823385774</v>
+        <v>0.09311903483237477</v>
       </c>
       <c r="D12">
-        <v>0.09311903483237477</v>
+        <v>-0.03775184610904891</v>
       </c>
       <c r="E12">
-        <v>-0.03775184610904891</v>
+        <v>-0.1472696450331708</v>
       </c>
       <c r="F12">
-        <v>-0.1472696450331708</v>
+        <v>-0.9770474321007241</v>
       </c>
       <c r="G12">
-        <v>-0.9770474321007241</v>
+        <v>-0.3965216429320764</v>
       </c>
       <c r="H12">
-        <v>-0.3965216429320764</v>
+        <v>-0.4799077443618563</v>
       </c>
       <c r="I12">
-        <v>-0.4799077443618563</v>
+        <v>-0.697817621901615</v>
       </c>
       <c r="J12">
-        <v>-0.697817621901615</v>
+        <v>0.8659601817345554</v>
       </c>
       <c r="K12">
-        <v>0.8659601817345554</v>
+        <v>-0.4700235243475083</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -898,34 +898,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.4425040297996861</v>
+        <v>0.3116331488582624</v>
       </c>
       <c r="C13">
-        <v>0.3116331488582624</v>
+        <v>0.2021153499341405</v>
       </c>
       <c r="D13">
-        <v>0.2021153499341405</v>
+        <v>-0.6276624371334127</v>
       </c>
       <c r="E13">
-        <v>-0.6276624371334127</v>
+        <v>-0.04713664796476502</v>
       </c>
       <c r="F13">
-        <v>-0.04713664796476502</v>
+        <v>-0.130522749394545</v>
       </c>
       <c r="G13">
-        <v>-0.130522749394545</v>
+        <v>-0.3484326269343037</v>
       </c>
       <c r="H13">
-        <v>-0.3484326269343037</v>
+        <v>1.215345176701867</v>
       </c>
       <c r="I13">
-        <v>1.215345176701867</v>
+        <v>-0.1206385293801969</v>
       </c>
       <c r="J13">
-        <v>-0.1206385293801969</v>
+        <v>1.319975887149931</v>
       </c>
       <c r="K13">
-        <v>1.319975887149931</v>
+        <v>0.2195317728891086</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -933,34 +933,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.2720610750631522</v>
+        <v>-1.101838862130705</v>
       </c>
       <c r="C14">
-        <v>-1.101838862130705</v>
+        <v>-0.5213130729620578</v>
       </c>
       <c r="D14">
-        <v>-0.5213130729620578</v>
+        <v>-0.6046991743918377</v>
       </c>
       <c r="E14">
-        <v>-0.6046991743918377</v>
+        <v>-0.8226090519315964</v>
       </c>
       <c r="F14">
-        <v>-0.8226090519315964</v>
+        <v>0.741168751704574</v>
       </c>
       <c r="G14">
-        <v>0.741168751704574</v>
+        <v>-0.5948149543774897</v>
       </c>
       <c r="H14">
-        <v>-0.5948149543774897</v>
+        <v>0.8457994621526386</v>
       </c>
       <c r="I14">
-        <v>0.8457994621526386</v>
+        <v>-0.2546446521081841</v>
       </c>
       <c r="J14">
-        <v>-0.2546446521081841</v>
+        <v>-0.464919050277854</v>
       </c>
       <c r="K14">
-        <v>-0.464919050277854</v>
+        <v>0.1336251531058764</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -968,34 +968,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.1065518669046048</v>
+        <v>-0.1899379683343848</v>
       </c>
       <c r="C15">
-        <v>-0.1899379683343848</v>
+        <v>-0.4078478458741435</v>
       </c>
       <c r="D15">
-        <v>-0.4078478458741435</v>
+        <v>1.155929957762027</v>
       </c>
       <c r="E15">
-        <v>1.155929957762027</v>
+        <v>-0.1800537483200367</v>
       </c>
       <c r="F15">
-        <v>-0.1800537483200367</v>
+        <v>1.260560668210092</v>
       </c>
       <c r="G15">
-        <v>1.260560668210092</v>
+        <v>0.1601165539492688</v>
       </c>
       <c r="H15">
-        <v>0.1601165539492688</v>
+        <v>-0.05015784422040104</v>
       </c>
       <c r="I15">
-        <v>-0.05015784422040104</v>
+        <v>0.5483863591633293</v>
       </c>
       <c r="J15">
-        <v>0.5483863591633293</v>
+        <v>0.2227177183881149</v>
       </c>
       <c r="K15">
-        <v>0.2227177183881149</v>
+        <v>0.9398975197637186</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1003,179 +1003,314 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.1895682054566924</v>
+        <v>1.374209598179478</v>
       </c>
       <c r="C16">
-        <v>1.374209598179478</v>
+        <v>0.03822589209741434</v>
       </c>
       <c r="D16">
-        <v>0.03822589209741434</v>
+        <v>1.478840308627543</v>
       </c>
       <c r="E16">
-        <v>1.478840308627543</v>
+        <v>0.3783961943667199</v>
       </c>
       <c r="F16">
-        <v>0.3783961943667199</v>
+        <v>0.16812179619705</v>
       </c>
       <c r="G16">
-        <v>0.16812179619705</v>
+        <v>0.7666659995807804</v>
       </c>
       <c r="H16">
-        <v>0.7666659995807804</v>
+        <v>0.440997358805566</v>
       </c>
       <c r="I16">
-        <v>0.440997358805566</v>
+        <v>1.15817716018117</v>
       </c>
       <c r="J16">
-        <v>1.15817716018117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>2.854049435818871</v>
+      </c>
+      <c r="K16">
+        <v>9.698296230743448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>1.157000698704573</v>
+        <v>-0.1789830073774904</v>
       </c>
       <c r="C17">
-        <v>-0.1789830073774904</v>
+        <v>1.261631409152638</v>
       </c>
       <c r="D17">
-        <v>1.261631409152638</v>
+        <v>0.1611872948918152</v>
       </c>
       <c r="E17">
-        <v>0.1611872948918152</v>
+        <v>-0.0490871032778547</v>
       </c>
       <c r="F17">
-        <v>-0.0490871032778547</v>
+        <v>0.5494571001058757</v>
       </c>
       <c r="G17">
-        <v>0.5494571001058757</v>
+        <v>0.2237884593306613</v>
       </c>
       <c r="H17">
-        <v>0.2237884593306613</v>
+        <v>0.9409682607062649</v>
       </c>
       <c r="I17">
-        <v>0.9409682607062649</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>2.636840536343966</v>
+      </c>
+      <c r="J17">
+        <v>9.481087331268544</v>
+      </c>
+      <c r="K17">
+        <v>-8.069566751832767</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-0.4886691766355519</v>
+        <v>0.9519452398945764</v>
       </c>
       <c r="C18">
-        <v>0.9519452398945764</v>
+        <v>-0.1484988743662463</v>
       </c>
       <c r="D18">
-        <v>-0.1484988743662463</v>
+        <v>-0.3587732725359162</v>
       </c>
       <c r="E18">
-        <v>-0.3587732725359162</v>
+        <v>0.2397709308478142</v>
       </c>
       <c r="F18">
-        <v>0.2397709308478142</v>
+        <v>-0.0858977099274002</v>
       </c>
       <c r="G18">
-        <v>-0.0858977099274002</v>
+        <v>0.6312820914482035</v>
       </c>
       <c r="H18">
-        <v>0.6312820914482035</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>2.327154367085904</v>
+      </c>
+      <c r="I18">
+        <v>9.171401162010483</v>
+      </c>
+      <c r="J18">
+        <v>-8.379252921090828</v>
+      </c>
+      <c r="K18">
+        <v>-0.6698563214346814</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>1.10624937372658</v>
+        <v>0.005805259465757717</v>
       </c>
       <c r="C19">
-        <v>0.005805259465757717</v>
+        <v>-0.2044691387039121</v>
       </c>
       <c r="D19">
-        <v>-0.2044691387039121</v>
+        <v>0.3940750646798182</v>
       </c>
       <c r="E19">
-        <v>0.3940750646798182</v>
+        <v>0.06840642390460383</v>
       </c>
       <c r="F19">
-        <v>0.06840642390460383</v>
+        <v>0.7855862252802075</v>
       </c>
       <c r="G19">
-        <v>0.7855862252802075</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>2.481458500917908</v>
+      </c>
+      <c r="H19">
+        <v>9.325705295842486</v>
+      </c>
+      <c r="I19">
+        <v>-8.224948787258825</v>
+      </c>
+      <c r="J19">
+        <v>-0.5155521876026774</v>
+      </c>
+      <c r="K19">
+        <v>1.067360473284234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.6446211617534254</v>
+        <v>-0.8548955599230954</v>
       </c>
       <c r="C20">
-        <v>-0.8548955599230954</v>
+        <v>-0.256351356539365</v>
       </c>
       <c r="D20">
-        <v>-0.256351356539365</v>
+        <v>-0.5820199973145794</v>
       </c>
       <c r="E20">
-        <v>-0.5820199973145794</v>
+        <v>0.1351598040610243</v>
       </c>
       <c r="F20">
-        <v>0.1351598040610243</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>1.831032079698725</v>
+      </c>
+      <c r="G20">
+        <v>8.675278874623302</v>
+      </c>
+      <c r="H20">
+        <v>-8.875375208478008</v>
+      </c>
+      <c r="I20">
+        <v>-1.165978608821861</v>
+      </c>
+      <c r="J20">
+        <v>0.416934052065051</v>
+      </c>
+      <c r="K20">
+        <v>-2.549352940284205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.6387305113048862</v>
+        <v>-0.04018630792115581</v>
       </c>
       <c r="C21">
-        <v>-0.04018630792115581</v>
+        <v>-0.3658549486963703</v>
       </c>
       <c r="D21">
-        <v>-0.3658549486963703</v>
+        <v>0.3513248526792334</v>
       </c>
       <c r="E21">
-        <v>0.3513248526792334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>2.047197128316934</v>
+      </c>
+      <c r="F21">
+        <v>8.891443923241512</v>
+      </c>
+      <c r="G21">
+        <v>-8.659210159859798</v>
+      </c>
+      <c r="H21">
+        <v>-0.9498135602036515</v>
+      </c>
+      <c r="I21">
+        <v>0.6330991006832601</v>
+      </c>
+      <c r="J21">
+        <v>-2.333187891665996</v>
+      </c>
+      <c r="K21">
+        <v>-0.06915673700153271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.3668428211138005</v>
+        <v>0.04117418033858611</v>
       </c>
       <c r="C22">
-        <v>0.04117418033858611</v>
+        <v>0.7583539817141898</v>
       </c>
       <c r="D22">
-        <v>0.7583539817141898</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>2.454226257351891</v>
+      </c>
+      <c r="E22">
+        <v>9.298473052276469</v>
+      </c>
+      <c r="F22">
+        <v>-8.252181030824842</v>
+      </c>
+      <c r="G22">
+        <v>-0.5427844311686951</v>
+      </c>
+      <c r="H22">
+        <v>1.040128229718217</v>
+      </c>
+      <c r="I22">
+        <v>-1.926158762631039</v>
+      </c>
+      <c r="J22">
+        <v>0.3378723920334236</v>
+      </c>
+      <c r="K22">
+        <v>-0.113281762893315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.4578680368388337</v>
+        <v>0.25931176453677</v>
       </c>
       <c r="C23">
-        <v>0.25931176453677</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>1.955184040174471</v>
+      </c>
+      <c r="D23">
+        <v>8.799430835099049</v>
+      </c>
+      <c r="E23">
+        <v>-8.751223248002262</v>
+      </c>
+      <c r="F23">
+        <v>-1.041826648346115</v>
+      </c>
+      <c r="G23">
+        <v>0.5410860125407967</v>
+      </c>
+      <c r="H23">
+        <v>-2.425200979808459</v>
+      </c>
+      <c r="I23">
+        <v>-0.1611698251439962</v>
+      </c>
+      <c r="J23">
+        <v>-0.6123239800707349</v>
+      </c>
+      <c r="K23">
+        <v>-0.752688043584709</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.4181606776922825</v>
+        <v>2.114032953329983</v>
+      </c>
+      <c r="C24">
+        <v>8.958279748254562</v>
+      </c>
+      <c r="D24">
+        <v>-8.592374334846749</v>
+      </c>
+      <c r="E24">
+        <v>-0.8829777351906024</v>
+      </c>
+      <c r="F24">
+        <v>0.6999349256963092</v>
+      </c>
+      <c r="G24">
+        <v>-2.266352066652947</v>
+      </c>
+      <c r="H24">
+        <v>-0.002320911988483623</v>
+      </c>
+      <c r="I24">
+        <v>-0.4534750669152223</v>
+      </c>
+      <c r="J24">
+        <v>-0.5938391304291964</v>
+      </c>
+      <c r="K24">
+        <v>-0.06760011956697885</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq/AVERAGE_1_9_qoq_errors_latest_eval_ifoCASTset_naive_qoq.xlsx
+++ b/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq/AVERAGE_1_9_qoq_errors_latest_eval_ifoCASTset_naive_qoq.xlsx
@@ -513,34 +513,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>0.04231489763667018</v>
+      </c>
+      <c r="C2">
         <v>-1.112737948256028</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.426895895633562</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.1572417756599283</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.7087734795590415</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.482846718646189</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.5906624340427387</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.4942628133784369</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.9976736988314454</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1.256195640754894</v>
-      </c>
-      <c r="K2">
-        <v>-0.4677869442234193</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -548,34 +548,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>1.228061995268202</v>
+      </c>
+      <c r="C3">
         <v>0.9584078752945684</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.509939579193682</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1.284012818280829</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.391828533677379</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1.295428913013077</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.798839798466086</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2.057361740389535</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.3333791554112209</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.9870183717739222</v>
-      </c>
-      <c r="K3">
-        <v>1.350562306682353</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,34 +583,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>0.5137754236260815</v>
+      </c>
+      <c r="C4">
         <v>0.2878486627132291</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.3956643781097787</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.299264757445477</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.8026756428984855</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1.061197584821935</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-0.6627850001563792</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-0.00914578379367792</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.3543981511147533</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-0.5463776937648762</v>
-      </c>
-      <c r="K4">
-        <v>0.5239978631887766</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,34 +618,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>0.4028038717171413</v>
+      </c>
+      <c r="C5">
         <v>0.3064042510528396</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.8098151365058481</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.068337078429297</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-0.6556455065490165</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-0.002006290186315263</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.3615376447221159</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-0.5392382001575136</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.5311373567961393</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-0.04592255722032257</v>
-      </c>
-      <c r="K5">
-        <v>-0.2515285413133388</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -653,34 +653,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>0.5336388157440486</v>
+      </c>
+      <c r="C6">
         <v>0.7921607576674977</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-0.9318218273108161</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-0.2781826109481148</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.0853613239603164</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-0.8154145209193131</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.2549610360343397</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-0.3220988779821221</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-0.5277048620751383</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.4514401196459589</v>
-      </c>
-      <c r="K6">
-        <v>-0.2849062236914031</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,34 +688,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-1.102517691576566</v>
+      </c>
+      <c r="C7">
         <v>-0.4488784752138651</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-0.08533454030543387</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-0.9861103851850633</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.08426517176858947</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-0.4927947422478724</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-0.6984007263408886</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.2807442553802086</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-0.4556020879571533</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-0.4735719026113467</v>
-      </c>
-      <c r="K7">
-        <v>-0.4501670370710099</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,34 +723,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>0.1737007515684039</v>
+      </c>
+      <c r="C8">
         <v>-0.7270750933112256</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.3433004636424272</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-0.2337594503740346</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-0.4393654344670508</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.5397795472540464</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.1965667960833156</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-0.2145366107375089</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-0.1911317451971721</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-0.5563061809639129</v>
-      </c>
-      <c r="K8">
-        <v>0.09951333620703928</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,34 +758,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>0.8389029408811082</v>
+      </c>
+      <c r="C9">
         <v>0.2618430268646463</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.05623704277163011</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1.035382024492727</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.2990356811553654</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.281065866501172</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.3044707320415089</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-0.06070370372523193</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.5951158134457202</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.4642449325042965</v>
-      </c>
-      <c r="K9">
-        <v>0.3547271335801747</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,34 +793,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>-0.6954484448595206</v>
+      </c>
+      <c r="C10">
         <v>0.2836965368615766</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.4526498064757853</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-0.4706196211299787</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-0.4472147555896419</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-0.8123891913563827</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.1565696741854305</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-0.2874405551268542</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-0.3969583540509761</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-1.226736141118529</v>
-      </c>
-      <c r="K10">
-        <v>-0.6462103519498816</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,34 +828,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>-0.2465870357053012</v>
+      </c>
+      <c r="C11">
         <v>-0.2645568503594945</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-0.2411519848191577</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.6063264205858985</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.04949309658505369</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-0.08137778435637</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-0.1908955832804919</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-1.020673370348045</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-0.4401475811793975</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-0.5235336826091774</v>
-      </c>
-      <c r="K11">
-        <v>-0.7414435601489361</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -863,34 +863,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>-0.1975260465718366</v>
+      </c>
+      <c r="C12">
         <v>-0.5627004823385774</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.09311903483237477</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-0.03775184610904891</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-0.1472696450331708</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-0.9770474321007241</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-0.3965216429320764</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-0.4799077443618563</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-0.697817621901615</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.8659601817345554</v>
-      </c>
-      <c r="K12">
-        <v>-0.4700235243475083</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -898,34 +898,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>0.4425040297996861</v>
+      </c>
+      <c r="C13">
         <v>0.3116331488582624</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.2021153499341405</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-0.6276624371334127</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-0.04713664796476502</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-0.130522749394545</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-0.3484326269343037</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1.215345176701867</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-0.1206385293801969</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1.319975887149931</v>
-      </c>
-      <c r="K13">
-        <v>0.2195317728891086</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -933,34 +933,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-0.2720610750631522</v>
+      </c>
+      <c r="C14">
         <v>-1.101838862130705</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.5213130729620578</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-0.6046991743918377</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-0.8226090519315964</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.741168751704574</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-0.5948149543774897</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.8457994621526386</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-0.2546446521081841</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-0.464919050277854</v>
-      </c>
-      <c r="K14">
-        <v>0.1336251531058764</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -968,34 +968,34 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>-0.1065518669046048</v>
+      </c>
+      <c r="C15">
         <v>-0.1899379683343848</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-0.4078478458741435</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1.155929957762027</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-0.1800537483200367</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1.260560668210092</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.1601165539492688</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-0.05015784422040104</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.5483863591633293</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.2227177183881149</v>
-      </c>
-      <c r="K15">
-        <v>0.9398975197637186</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1003,34 +1003,34 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>-0.1895682054566924</v>
+      </c>
+      <c r="C16">
         <v>1.374209598179478</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.03822589209741434</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1.478840308627543</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.3783961943667199</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.16812179619705</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.7666659995807804</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.440997358805566</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1.15817716018117</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2.854049435818871</v>
-      </c>
-      <c r="K16">
-        <v>9.698296230743448</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1038,34 +1038,34 @@
         <v>25</v>
       </c>
       <c r="B17">
+        <v>1.157000698704573</v>
+      </c>
+      <c r="C17">
         <v>-0.1789830073774904</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1.261631409152638</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.1611872948918152</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-0.0490871032778547</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.5494571001058757</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.2237884593306613</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.9409682607062649</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>2.636840536343966</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>9.481087331268544</v>
-      </c>
-      <c r="K17">
-        <v>-8.069566751832767</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1073,34 +1073,34 @@
         <v>26</v>
       </c>
       <c r="B18">
+        <v>-0.4886691766355519</v>
+      </c>
+      <c r="C18">
         <v>0.9519452398945764</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-0.1484988743662463</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-0.3587732725359162</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.2397709308478142</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-0.0858977099274002</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.6312820914482035</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2.327154367085904</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>9.171401162010483</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-8.379252921090828</v>
-      </c>
-      <c r="K18">
-        <v>-0.6698563214346814</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1108,34 +1108,34 @@
         <v>27</v>
       </c>
       <c r="B19">
+        <v>1.10624937372658</v>
+      </c>
+      <c r="C19">
         <v>0.005805259465757717</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-0.2044691387039121</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.3940750646798182</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.06840642390460383</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.7855862252802075</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>2.481458500917908</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>9.325705295842486</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-8.224948787258825</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-0.5155521876026774</v>
-      </c>
-      <c r="K19">
-        <v>1.067360473284234</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1143,34 +1143,34 @@
         <v>28</v>
       </c>
       <c r="B20">
+        <v>-0.6446211617534254</v>
+      </c>
+      <c r="C20">
         <v>-0.8548955599230954</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-0.256351356539365</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-0.5820199973145794</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.1351598040610243</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1.831032079698725</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>8.675278874623302</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-8.875375208478008</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-1.165978608821861</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.416934052065051</v>
-      </c>
-      <c r="K20">
-        <v>-2.549352940284205</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1178,34 +1178,34 @@
         <v>29</v>
       </c>
       <c r="B21">
+        <v>-0.6387305113048862</v>
+      </c>
+      <c r="C21">
         <v>-0.04018630792115581</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-0.3658549486963703</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.3513248526792334</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>2.047197128316934</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>8.891443923241512</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-8.659210159859798</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-0.9498135602036515</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.6330991006832601</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-2.333187891665996</v>
-      </c>
-      <c r="K21">
-        <v>-0.06915673700153271</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1213,34 +1213,34 @@
         <v>30</v>
       </c>
       <c r="B22">
+        <v>0.3668428211138005</v>
+      </c>
+      <c r="C22">
         <v>0.04117418033858611</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.7583539817141898</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>2.454226257351891</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>9.298473052276469</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-8.252181030824842</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>-0.5427844311686951</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>1.040128229718217</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-1.926158762631039</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.3378723920334236</v>
-      </c>
-      <c r="K22">
-        <v>-0.113281762893315</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1248,34 +1248,34 @@
         <v>31</v>
       </c>
       <c r="B23">
+        <v>-0.4578680368388337</v>
+      </c>
+      <c r="C23">
         <v>0.25931176453677</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>1.955184040174471</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>8.799430835099049</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-8.751223248002262</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-1.041826648346115</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.5410860125407967</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-2.425200979808459</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-0.1611698251439962</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-0.6123239800707349</v>
-      </c>
-      <c r="K23">
-        <v>-0.752688043584709</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1283,34 +1283,34 @@
         <v>32</v>
       </c>
       <c r="B24">
+        <v>0.4181606776922825</v>
+      </c>
+      <c r="C24">
         <v>2.114032953329983</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>8.958279748254562</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-8.592374334846749</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-0.8829777351906024</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.6999349256963092</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-2.266352066652947</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>-0.002320911988483623</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>-0.4534750669152223</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-0.5938391304291964</v>
-      </c>
-      <c r="K24">
-        <v>-0.06760011956697885</v>
       </c>
     </row>
   </sheetData>
